--- a/Hospital_Data_Base.xlsx
+++ b/Hospital_Data_Base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\חן\Documents\GitHub\CoronaProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\CoronaProject-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BFAA9C-C332-4FF2-ABD9-6E73C4E02E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11330"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" r:id="rId1"/>
@@ -134,9 +135,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1000000]00000000\-0"/>
+    <numFmt numFmtId="164" formatCode="[$-1000000]00000000\-0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -168,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -178,12 +179,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,253 +467,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
-    <col min="2" max="4" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5" max="7" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
+    <col min="2" max="4" width="16.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="16.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>365134721</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>216769123</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>332971421</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>278971914</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>372857281</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>327468342</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>278457481</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>326472358</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>256526412</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>251873824</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>236785184</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>361872531</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>356732572</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>328754819</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>235165175</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>256713576</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -719,29 +725,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="105" workbookViewId="0">
       <selection activeCell="C13" sqref="C5:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="6" width="16.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -749,7 +755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -760,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -771,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -782,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -793,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -804,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -815,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -826,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -837,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -848,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -859,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -870,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -881,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -892,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -903,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -914,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -925,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -936,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -947,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -958,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -969,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -980,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -991,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1288,22 +1294,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="16.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1317,8 +1323,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>247326941</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1331,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>345637281</v>
       </c>
@@ -1345,9 +1351,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>261785325</v>
+        <v>261785326</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1359,8 +1365,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -1373,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>398765432</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>337268478</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>251753456</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>268476841</v>
       </c>

--- a/Hospital_Data_Base.xlsx
+++ b/Hospital_Data_Base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\CoronaProject-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BFAA9C-C332-4FF2-ABD9-6E73C4E02E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F20010-4FDF-4595-B741-96C178E98F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="37">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>205577348</t>
   </si>
 </sst>
 </file>
@@ -169,16 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -188,6 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,246 +478,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
-    <col min="2" max="4" width="16.375" style="6" customWidth="1"/>
-    <col min="5" max="7" width="16.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="16.375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="16.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>365134721</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>216769123</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>332971421</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>278971914</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>372857281</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>327468342</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>278457481</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>326472358</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>256526412</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>251873824</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>236785184</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>361872531</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>356732572</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>328754819</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>235165175</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>256713576</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -734,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="16.375" style="3" customWidth="1"/>
+    <col min="1" max="6" width="16.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,7 +753,7 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -773,7 +775,7 @@
       <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
@@ -784,7 +786,7 @@
       <c r="B5">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>3</v>
       </c>
     </row>
@@ -795,7 +797,7 @@
       <c r="B6">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
@@ -806,7 +808,7 @@
       <c r="B7">
         <v>17</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
@@ -817,7 +819,7 @@
       <c r="B8">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
@@ -828,7 +830,7 @@
       <c r="B9">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>7</v>
       </c>
     </row>
@@ -839,7 +841,7 @@
       <c r="B10">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>8</v>
       </c>
     </row>
@@ -850,7 +852,7 @@
       <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>9</v>
       </c>
     </row>
@@ -861,7 +863,7 @@
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
@@ -872,7 +874,7 @@
       <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>11</v>
       </c>
     </row>
@@ -1289,24 +1291,24 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1324,7 +1326,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>247326941</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1333,7 +1335,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1347,7 +1349,7 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1361,12 +1363,12 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -1375,7 +1377,7 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1383,13 +1385,13 @@
       <c r="A6">
         <v>398765432</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1397,13 +1399,13 @@
       <c r="A7">
         <v>337268478</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1411,13 +1413,13 @@
       <c r="A8">
         <v>251753456</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1425,14 +1427,28 @@
       <c r="A9">
         <v>268476841</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
